--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value880.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value880.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.246406672276934</v>
+        <v>3.047735691070557</v>
       </c>
       <c r="B1">
-        <v>2.497940397667409</v>
+        <v>2.561015367507935</v>
       </c>
       <c r="C1">
-        <v>3.388122114643548</v>
+        <v>2.129439115524292</v>
       </c>
       <c r="D1">
-        <v>3.233660294166027</v>
+        <v>2.008375644683838</v>
       </c>
       <c r="E1">
-        <v>1.108153890995904</v>
+        <v>1.749341368675232</v>
       </c>
     </row>
   </sheetData>
